--- a/Data/EC/NIT-9003913765.xlsx
+++ b/Data/EC/NIT-9003913765.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3F08D9-66FC-4D07-9316-2108C3A80624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9E9E7C-2F36-4CB5-BDE1-A81D240DC468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27CAB47A-FF1B-42B7-9EAC-D75E596F5BC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5295C1E4-11AF-45B6-9296-0820DA84CE68}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,6 +74,21 @@
     <t>2109</t>
   </si>
   <si>
+    <t>8850684</t>
+  </si>
+  <si>
+    <t>RODOLFO SANJULIAN TRESPALACIOS</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>73184986</t>
   </si>
   <si>
@@ -83,21 +98,6 @@
     <t>2110</t>
   </si>
   <si>
-    <t>8850684</t>
-  </si>
-  <si>
-    <t>RODOLFO SANJULIAN TRESPALACIOS</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
     <t>73107491</t>
   </si>
   <si>
@@ -107,34 +107,37 @@
     <t>2203</t>
   </si>
   <si>
+    <t>43653236</t>
+  </si>
+  <si>
+    <t>DIANA SHIRLEY PEREZ AMARILES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>1000222821</t>
   </si>
   <si>
     <t>MIGUEL ANGEL HERNANDEZ PEREZ</t>
   </si>
   <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>43653236</t>
-  </si>
-  <si>
-    <t>DIANA SHIRLEY PEREZ AMARILES</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B729789D-0AAD-C548-5FD3-41C65820BB16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB54DB5-7C82-921F-DF8E-0C87EF919CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,8 +902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B0040-FD96-47CF-8A20-4A8754FBA090}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B184DE0-D126-4B0F-ACD7-6A6AC853648B}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -924,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -969,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1001,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>659580</v>
+        <v>716520</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,17 +1020,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1054,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1100,10 +1103,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>7958</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>3202710</v>
+        <v>4905000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,19 +1117,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>72000</v>
       </c>
       <c r="G18" s="18">
-        <v>1800000</v>
+        <v>4905000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>72000</v>
       </c>
       <c r="G19" s="18">
-        <v>1800000</v>
+        <v>4905000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,19 +1163,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>7958</v>
       </c>
       <c r="G20" s="18">
-        <v>1800000</v>
+        <v>3202710</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1215,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>39858</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1238,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
         <v>1423500</v>
@@ -1252,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1275,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1298,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1317,42 +1320,54 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="F27" s="18">
+        <v>32266</v>
+      </c>
+      <c r="G27" s="18">
         <v>1423500</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="24">
+        <v>39858</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="32"/>
       <c r="H33" s="1" t="s">
@@ -1361,12 +1376,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003913765.xlsx
+++ b/Data/EC/NIT-9003913765.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9E9E7C-2F36-4CB5-BDE1-A81D240DC468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0577255-D1D4-4E50-BB98-5C3D01685C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5295C1E4-11AF-45B6-9296-0820DA84CE68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E0D7614-C12B-4E42-A831-E8178BA171CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,30 +74,30 @@
     <t>2109</t>
   </si>
   <si>
+    <t>73184986</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CORDOBA MANRIQUE</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>8850684</t>
   </si>
   <si>
     <t>RODOLFO SANJULIAN TRESPALACIOS</t>
   </si>
   <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>73184986</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CORDOBA MANRIQUE</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
     <t>73107491</t>
   </si>
   <si>
@@ -107,37 +107,40 @@
     <t>2203</t>
   </si>
   <si>
+    <t>1000222821</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL HERNANDEZ PEREZ</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>43653236</t>
   </si>
   <si>
     <t>DIANA SHIRLEY PEREZ AMARILES</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1000222821</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL HERNANDEZ PEREZ</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB54DB5-7C82-921F-DF8E-0C87EF919CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF63EED-ECE3-0EE9-A59F-48AFE7262982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B184DE0-D126-4B0F-ACD7-6A6AC853648B}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D48654-BBF2-49CF-9A77-91AE580E05FB}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>716520</v>
+        <v>773460</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1103,10 +1106,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>7958</v>
       </c>
       <c r="G17" s="18">
-        <v>4905000</v>
+        <v>3202710</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1117,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>72000</v>
       </c>
       <c r="G18" s="18">
-        <v>4905000</v>
+        <v>1800000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1140,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>72000</v>
       </c>
       <c r="G19" s="18">
-        <v>4905000</v>
+        <v>1800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1163,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>7958</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>3202710</v>
+        <v>1800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1218,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>39858</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1241,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G23" s="18">
         <v>1423500</v>
@@ -1255,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1278,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1301,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1324,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
         <v>1423500</v>
@@ -1343,42 +1346,54 @@
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="C28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="24">
-        <v>39858</v>
-      </c>
-      <c r="G28" s="24">
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
         <v>1423500</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" s="32"/>
       <c r="H34" s="1" t="s">
@@ -1387,12 +1402,23 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003913765.xlsx
+++ b/Data/EC/NIT-9003913765.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0577255-D1D4-4E50-BB98-5C3D01685C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7135001-BD61-4272-90CE-400DB87CABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E0D7614-C12B-4E42-A831-E8178BA171CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19A409D2-F6DA-4C9B-9B74-256536B80797}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -254,7 +255,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,29 +451,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,19 +492,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF63EED-ECE3-0EE9-A59F-48AFE7262982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB39B11-364A-CEB3-7CF8-38802B44504E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D48654-BBF2-49CF-9A77-91AE580E05FB}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A66294F-FC03-43D9-9366-1E53B08093AA}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -928,57 +937,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003913765</v>
       </c>
@@ -1007,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>773460</v>
+        <v>830400</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1032,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1079,18 +1088,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>50776</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2538780</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1102,18 +1111,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>7958</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>3202710</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1125,18 +1134,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>72000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1800000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1148,18 +1157,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>72000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1800000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1171,18 +1180,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>48000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1800000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1194,18 +1203,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>108962</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>2724060</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1217,18 +1226,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>39858</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1240,18 +1249,18 @@
       <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>32266</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1263,18 +1272,18 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>56940</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1423500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1286,18 +1295,18 @@
       <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>56940</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1309,18 +1318,18 @@
       <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>56940</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1423500</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1332,18 +1341,18 @@
       <c r="D27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>56940</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1423500</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1355,70 +1364,93 @@
       <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>56940</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1423500</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="19">
         <v>56940</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="19">
         <v>1423500</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="26">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="26">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="32"/>
+      <c r="B35" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
